--- a/natmiOut/OldD7/LR-pairs_lrc2p/Alcam-L1cam.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Alcam-L1cam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,12 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -86,9 +92,6 @@
   </si>
   <si>
     <t>L1cam</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>12.9703537567207</v>
+        <v>0.1679946666666667</v>
       </c>
       <c r="H2">
-        <v>12.9703537567207</v>
+        <v>0.503984</v>
       </c>
       <c r="I2">
-        <v>0.9516660334228115</v>
+        <v>0.01092395986782543</v>
       </c>
       <c r="J2">
-        <v>0.9516660334228115</v>
+        <v>0.01092395986782543</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.0856776876501</v>
+        <v>11.88712433333333</v>
       </c>
       <c r="N2">
-        <v>10.0856776876501</v>
+        <v>35.661373</v>
       </c>
       <c r="O2">
-        <v>0.7009831880546255</v>
+        <v>0.5967229292030898</v>
       </c>
       <c r="P2">
-        <v>0.7009831880546255</v>
+        <v>0.5967229292030898</v>
       </c>
       <c r="Q2">
-        <v>130.8148074850866</v>
+        <v>1.996973490003555</v>
       </c>
       <c r="R2">
-        <v>130.8148074850866</v>
+        <v>17.972761410032</v>
       </c>
       <c r="S2">
-        <v>0.6671018900720221</v>
+        <v>0.006518577330825786</v>
       </c>
       <c r="T2">
-        <v>0.6671018900720221</v>
+        <v>0.006518577330825786</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>12.9703537567207</v>
+        <v>0.1679946666666667</v>
       </c>
       <c r="H3">
-        <v>12.9703537567207</v>
+        <v>0.503984</v>
       </c>
       <c r="I3">
-        <v>0.9516660334228115</v>
+        <v>0.01092395986782543</v>
       </c>
       <c r="J3">
-        <v>0.9516660334228115</v>
+        <v>0.01092395986782543</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>2.38188700845157</v>
+        <v>0.3785896666666667</v>
       </c>
       <c r="N3">
-        <v>2.38188700845157</v>
+        <v>1.135769</v>
       </c>
       <c r="O3">
-        <v>0.1655478987609108</v>
+        <v>0.01900486009268527</v>
       </c>
       <c r="P3">
-        <v>0.1655478987609108</v>
+        <v>0.01900486009268527</v>
       </c>
       <c r="Q3">
-        <v>30.89391710815405</v>
+        <v>0.0636010448551111</v>
       </c>
       <c r="R3">
-        <v>30.89391710815405</v>
+        <v>0.572409403696</v>
       </c>
       <c r="S3">
-        <v>0.1575463121552772</v>
+        <v>0.000207608328946131</v>
       </c>
       <c r="T3">
-        <v>0.1575463121552772</v>
+        <v>0.000207608328946131</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,123 +646,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>12.9703537567207</v>
+        <v>0.1679946666666667</v>
       </c>
       <c r="H4">
-        <v>12.9703537567207</v>
+        <v>0.503984</v>
       </c>
       <c r="I4">
-        <v>0.9516660334228115</v>
+        <v>0.01092395986782543</v>
       </c>
       <c r="J4">
-        <v>0.9516660334228115</v>
+        <v>0.01092395986782543</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.92033769516674</v>
+        <v>4.123197999999999</v>
       </c>
       <c r="N4">
-        <v>1.92033769516674</v>
+        <v>12.369594</v>
       </c>
       <c r="O4">
-        <v>0.1334689131844636</v>
+        <v>0.2069808238940481</v>
       </c>
       <c r="P4">
-        <v>0.1334689131844636</v>
+        <v>0.2069808238940482</v>
       </c>
       <c r="Q4">
-        <v>24.9074592386783</v>
+        <v>0.6926752736106665</v>
       </c>
       <c r="R4">
-        <v>24.9074592386783</v>
+        <v>6.234077462496</v>
       </c>
       <c r="S4">
-        <v>0.1270178311955121</v>
+        <v>0.002261050213628024</v>
       </c>
       <c r="T4">
-        <v>0.1270178311955121</v>
+        <v>0.002261050213628024</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.658748576658639</v>
+        <v>0.1679946666666667</v>
       </c>
       <c r="H5">
-        <v>0.658748576658639</v>
+        <v>0.503984</v>
       </c>
       <c r="I5">
-        <v>0.04833396657718852</v>
+        <v>0.01092395986782543</v>
       </c>
       <c r="J5">
-        <v>0.04833396657718852</v>
+        <v>0.01092395986782543</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.0856776876501</v>
+        <v>3.531764333333333</v>
       </c>
       <c r="N5">
-        <v>10.0856776876501</v>
+        <v>10.595293</v>
       </c>
       <c r="O5">
-        <v>0.7009831880546255</v>
+        <v>0.1772913868101768</v>
       </c>
       <c r="P5">
-        <v>0.7009831880546255</v>
+        <v>0.1772913868101768</v>
       </c>
       <c r="Q5">
-        <v>6.643925821377297</v>
+        <v>0.5933175719235555</v>
       </c>
       <c r="R5">
-        <v>6.643925821377297</v>
+        <v>5.339858147311999</v>
       </c>
       <c r="S5">
-        <v>0.03388129798260332</v>
+        <v>0.001936723994425485</v>
       </c>
       <c r="T5">
-        <v>0.03388129798260332</v>
+        <v>0.001936723994425485</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.658748576658639</v>
+        <v>0.3341863333333333</v>
       </c>
       <c r="H6">
-        <v>0.658748576658639</v>
+        <v>1.002559</v>
       </c>
       <c r="I6">
-        <v>0.04833396657718852</v>
+        <v>0.02173067851584017</v>
       </c>
       <c r="J6">
-        <v>0.04833396657718852</v>
+        <v>0.02173067851584017</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.38188700845157</v>
+        <v>11.88712433333333</v>
       </c>
       <c r="N6">
-        <v>2.38188700845157</v>
+        <v>35.661373</v>
       </c>
       <c r="O6">
-        <v>0.1655478987609108</v>
+        <v>0.5967229292030898</v>
       </c>
       <c r="P6">
-        <v>0.1655478987609108</v>
+        <v>0.5967229292030898</v>
       </c>
       <c r="Q6">
-        <v>1.569064676579175</v>
+        <v>3.97251449483411</v>
       </c>
       <c r="R6">
-        <v>1.569064676579175</v>
+        <v>35.752630453507</v>
       </c>
       <c r="S6">
-        <v>0.008001586605633652</v>
+        <v>0.0129671941375428</v>
       </c>
       <c r="T6">
-        <v>0.008001586605633652</v>
+        <v>0.0129671941375428</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +832,681 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.658748576658639</v>
+        <v>0.3341863333333333</v>
       </c>
       <c r="H7">
-        <v>0.658748576658639</v>
+        <v>1.002559</v>
       </c>
       <c r="I7">
-        <v>0.04833396657718852</v>
+        <v>0.02173067851584017</v>
       </c>
       <c r="J7">
-        <v>0.04833396657718852</v>
+        <v>0.02173067851584017</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>1.92033769516674</v>
+        <v>0.3785896666666667</v>
       </c>
       <c r="N7">
-        <v>1.92033769516674</v>
+        <v>1.135769</v>
       </c>
       <c r="O7">
-        <v>0.1334689131844636</v>
+        <v>0.01900486009268527</v>
       </c>
       <c r="P7">
-        <v>0.1334689131844636</v>
+        <v>0.01900486009268527</v>
       </c>
       <c r="Q7">
-        <v>1.265019723395021</v>
+        <v>0.1265194925412222</v>
       </c>
       <c r="R7">
-        <v>1.265019723395021</v>
+        <v>1.138675432871</v>
       </c>
       <c r="S7">
-        <v>0.00645108198895154</v>
+        <v>0.0004129885049126641</v>
       </c>
       <c r="T7">
-        <v>0.00645108198895154</v>
+        <v>0.0004129885049126641</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.3341863333333333</v>
+      </c>
+      <c r="H8">
+        <v>1.002559</v>
+      </c>
+      <c r="I8">
+        <v>0.02173067851584017</v>
+      </c>
+      <c r="J8">
+        <v>0.02173067851584017</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>4.123197999999999</v>
+      </c>
+      <c r="N8">
+        <v>12.369594</v>
+      </c>
+      <c r="O8">
+        <v>0.2069808238940481</v>
+      </c>
+      <c r="P8">
+        <v>0.2069808238940482</v>
+      </c>
+      <c r="Q8">
+        <v>1.377916421227333</v>
+      </c>
+      <c r="R8">
+        <v>12.401247791046</v>
+      </c>
+      <c r="S8">
+        <v>0.004497833742985289</v>
+      </c>
+      <c r="T8">
+        <v>0.00449783374298529</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.3341863333333333</v>
+      </c>
+      <c r="H9">
+        <v>1.002559</v>
+      </c>
+      <c r="I9">
+        <v>0.02173067851584017</v>
+      </c>
+      <c r="J9">
+        <v>0.02173067851584017</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>3.531764333333333</v>
+      </c>
+      <c r="N9">
+        <v>10.595293</v>
+      </c>
+      <c r="O9">
+        <v>0.1772913868101768</v>
+      </c>
+      <c r="P9">
+        <v>0.1772913868101768</v>
+      </c>
+      <c r="Q9">
+        <v>1.180267372754111</v>
+      </c>
+      <c r="R9">
+        <v>10.622406354787</v>
+      </c>
+      <c r="S9">
+        <v>0.003852662130399417</v>
+      </c>
+      <c r="T9">
+        <v>0.003852662130399417</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>14.13270966666667</v>
+      </c>
+      <c r="H10">
+        <v>42.398129</v>
+      </c>
+      <c r="I10">
+        <v>0.9189884196063474</v>
+      </c>
+      <c r="J10">
+        <v>0.9189884196063474</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>11.88712433333333</v>
+      </c>
+      <c r="N10">
+        <v>35.661373</v>
+      </c>
+      <c r="O10">
+        <v>0.5967229292030898</v>
+      </c>
+      <c r="P10">
+        <v>0.5967229292030898</v>
+      </c>
+      <c r="Q10">
+        <v>167.9972769745685</v>
+      </c>
+      <c r="R10">
+        <v>1511.975492771117</v>
+      </c>
+      <c r="S10">
+        <v>0.5483814616512178</v>
+      </c>
+      <c r="T10">
+        <v>0.5483814616512178</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>14.13270966666667</v>
+      </c>
+      <c r="H11">
+        <v>42.398129</v>
+      </c>
+      <c r="I11">
+        <v>0.9189884196063474</v>
+      </c>
+      <c r="J11">
+        <v>0.9189884196063474</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.3785896666666667</v>
+      </c>
+      <c r="N11">
+        <v>1.135769</v>
+      </c>
+      <c r="O11">
+        <v>0.01900486009268527</v>
+      </c>
+      <c r="P11">
+        <v>0.01900486009268527</v>
+      </c>
+      <c r="Q11">
+        <v>5.35049784180011</v>
+      </c>
+      <c r="R11">
+        <v>48.154480576201</v>
+      </c>
+      <c r="S11">
+        <v>0.01746524634141658</v>
+      </c>
+      <c r="T11">
+        <v>0.01746524634141658</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>14.13270966666667</v>
+      </c>
+      <c r="H12">
+        <v>42.398129</v>
+      </c>
+      <c r="I12">
+        <v>0.9189884196063474</v>
+      </c>
+      <c r="J12">
+        <v>0.9189884196063474</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>4.123197999999999</v>
+      </c>
+      <c r="N12">
+        <v>12.369594</v>
+      </c>
+      <c r="O12">
+        <v>0.2069808238940481</v>
+      </c>
+      <c r="P12">
+        <v>0.2069808238940482</v>
+      </c>
+      <c r="Q12">
+        <v>58.27196023218065</v>
+      </c>
+      <c r="R12">
+        <v>524.4476420896259</v>
+      </c>
+      <c r="S12">
+        <v>0.190212980239211</v>
+      </c>
+      <c r="T12">
+        <v>0.190212980239211</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>14.13270966666667</v>
+      </c>
+      <c r="H13">
+        <v>42.398129</v>
+      </c>
+      <c r="I13">
+        <v>0.9189884196063474</v>
+      </c>
+      <c r="J13">
+        <v>0.9189884196063474</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>3.531764333333333</v>
+      </c>
+      <c r="N13">
+        <v>10.595293</v>
+      </c>
+      <c r="O13">
+        <v>0.1772913868101768</v>
+      </c>
+      <c r="P13">
+        <v>0.1772913868101768</v>
+      </c>
+      <c r="Q13">
+        <v>49.91339993408855</v>
+      </c>
+      <c r="R13">
+        <v>449.220599406797</v>
+      </c>
+      <c r="S13">
+        <v>0.162928731374502</v>
+      </c>
+      <c r="T13">
+        <v>0.162928731374502</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.7436596666666667</v>
+      </c>
+      <c r="H14">
+        <v>2.230979</v>
+      </c>
+      <c r="I14">
+        <v>0.04835694200998704</v>
+      </c>
+      <c r="J14">
+        <v>0.04835694200998703</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>11.88712433333333</v>
+      </c>
+      <c r="N14">
+        <v>35.661373</v>
+      </c>
+      <c r="O14">
+        <v>0.5967229292030898</v>
+      </c>
+      <c r="P14">
+        <v>0.5967229292030898</v>
+      </c>
+      <c r="Q14">
+        <v>8.839974919351889</v>
+      </c>
+      <c r="R14">
+        <v>79.559774274167</v>
+      </c>
+      <c r="S14">
+        <v>0.02885569608350341</v>
+      </c>
+      <c r="T14">
+        <v>0.02885569608350341</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.7436596666666667</v>
+      </c>
+      <c r="H15">
+        <v>2.230979</v>
+      </c>
+      <c r="I15">
+        <v>0.04835694200998704</v>
+      </c>
+      <c r="J15">
+        <v>0.04835694200998703</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.3785896666666667</v>
+      </c>
+      <c r="N15">
+        <v>1.135769</v>
+      </c>
+      <c r="O15">
+        <v>0.01900486009268527</v>
+      </c>
+      <c r="P15">
+        <v>0.01900486009268527</v>
+      </c>
+      <c r="Q15">
+        <v>0.2815418653167778</v>
+      </c>
+      <c r="R15">
+        <v>2.533876787851</v>
+      </c>
+      <c r="S15">
+        <v>0.0009190169174098987</v>
+      </c>
+      <c r="T15">
+        <v>0.0009190169174098986</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.7436596666666667</v>
+      </c>
+      <c r="H16">
+        <v>2.230979</v>
+      </c>
+      <c r="I16">
+        <v>0.04835694200998704</v>
+      </c>
+      <c r="J16">
+        <v>0.04835694200998703</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>4.123197999999999</v>
+      </c>
+      <c r="N16">
+        <v>12.369594</v>
+      </c>
+      <c r="O16">
+        <v>0.2069808238940481</v>
+      </c>
+      <c r="P16">
+        <v>0.2069808238940482</v>
+      </c>
+      <c r="Q16">
+        <v>3.066256050280666</v>
+      </c>
+      <c r="R16">
+        <v>27.596304452526</v>
+      </c>
+      <c r="S16">
+        <v>0.01000895969822383</v>
+      </c>
+      <c r="T16">
+        <v>0.01000895969822383</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.7436596666666667</v>
+      </c>
+      <c r="H17">
+        <v>2.230979</v>
+      </c>
+      <c r="I17">
+        <v>0.04835694200998704</v>
+      </c>
+      <c r="J17">
+        <v>0.04835694200998703</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3.531764333333333</v>
+      </c>
+      <c r="N17">
+        <v>10.595293</v>
+      </c>
+      <c r="O17">
+        <v>0.1772913868101768</v>
+      </c>
+      <c r="P17">
+        <v>0.1772913868101768</v>
+      </c>
+      <c r="Q17">
+        <v>2.626430686871889</v>
+      </c>
+      <c r="R17">
+        <v>23.637876181847</v>
+      </c>
+      <c r="S17">
+        <v>0.008573269310849898</v>
+      </c>
+      <c r="T17">
+        <v>0.008573269310849898</v>
       </c>
     </row>
   </sheetData>
